--- a/03. Planilhas/tabela verdade xgboost.xlsx
+++ b/03. Planilhas/tabela verdade xgboost.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Documents\01. Poli\01. Poli\01. TCC\03. Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\filipe.penna\Documents\Poli\TCC\mortes\03. Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32121527-E561-43AE-A28A-CE585865DAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>I.   Algumas doenças infecciosas e parasitárias</t>
   </si>
@@ -69,8 +83,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +104,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +122,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,18 +150,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,74 +468,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="8.88671875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>3</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>4</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>6</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>7</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>8</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>9</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>10</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>106</v>
       </c>
       <c r="D3" s="1">
@@ -539,14 +581,14 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>23</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <v>70</v>
       </c>
       <c r="E4" s="1">
@@ -585,17 +627,17 @@
         <v>0.35532994923857869</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>21</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="8">
         <v>32</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>22</v>
       </c>
       <c r="F5" s="1">
@@ -616,7 +658,7 @@
       <c r="K5" s="1">
         <v>20</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="8">
         <v>25</v>
       </c>
       <c r="M5" s="1">
@@ -631,7 +673,7 @@
         <v>0.11702127659574468</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -644,7 +686,7 @@
       <c r="E6" s="1">
         <v>15</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>39</v>
       </c>
       <c r="G6" s="1">
@@ -677,11 +719,11 @@
         <v>0.19796954314720813</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="8">
         <v>35</v>
       </c>
       <c r="D7" s="1">
@@ -693,7 +735,7 @@
       <c r="F7" s="1">
         <v>10</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="6">
         <v>20</v>
       </c>
       <c r="H7" s="1">
@@ -702,13 +744,13 @@
       <c r="I7" s="1">
         <v>19</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="8">
         <v>21</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="9">
         <v>20</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="9">
         <v>20</v>
       </c>
       <c r="M7" s="1">
@@ -723,7 +765,7 @@
         <v>0.10152284263959391</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -742,7 +784,7 @@
       <c r="G8" s="1">
         <v>11</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <v>48</v>
       </c>
       <c r="I8" s="1">
@@ -769,7 +811,7 @@
         <v>0.23762376237623761</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -791,13 +833,13 @@
       <c r="H9" s="1">
         <v>11</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="6">
         <v>37</v>
       </c>
       <c r="J9" s="1">
         <v>8</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="9">
         <v>37</v>
       </c>
       <c r="L9" s="1">
@@ -815,7 +857,7 @@
         <v>0.18048780487804877</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -840,7 +882,7 @@
       <c r="I10" s="1">
         <v>11</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="6">
         <v>52</v>
       </c>
       <c r="K10" s="1">
@@ -861,7 +903,7 @@
         <v>0.23853211009174313</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -889,7 +931,7 @@
       <c r="J11" s="1">
         <v>10</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="6">
         <v>48</v>
       </c>
       <c r="L11" s="1">
@@ -907,7 +949,7 @@
         <v>0.24742268041237114</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -938,7 +980,7 @@
       <c r="K12" s="1">
         <v>8</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="6">
         <v>116</v>
       </c>
       <c r="M12" s="1">
@@ -953,7 +995,7 @@
         <v>0.60732984293193715</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -987,7 +1029,7 @@
       <c r="L13" s="1">
         <v>10</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="6">
         <v>154</v>
       </c>
       <c r="N13" s="4">
@@ -999,7 +1041,7 @@
         <v>0.72985781990521326</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -1048,9 +1090,597 @@
         <v>268</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="5">
+      <c r="O14" s="7">
         <f>(C3+D4+E5+F6+G7+H8+I9+J10+K11+L12+M13)/SUM(C3:M13)</f>
         <v>0.32363636363636361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>134</v>
+      </c>
+      <c r="D16" s="1">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>21</v>
+      </c>
+      <c r="H16" s="1">
+        <v>19</v>
+      </c>
+      <c r="I16" s="1">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1">
+        <v>26</v>
+      </c>
+      <c r="K16" s="1">
+        <v>20</v>
+      </c>
+      <c r="L16" s="1">
+        <v>10</v>
+      </c>
+      <c r="M16" s="1">
+        <v>11</v>
+      </c>
+      <c r="N16" s="1">
+        <v>300</v>
+      </c>
+      <c r="O16" s="11">
+        <f>C16/$N16</f>
+        <v>0.44666666666666666</v>
+      </c>
+      <c r="P16" s="2">
+        <f>-O3+O16</f>
+        <v>-8.333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1">
+        <v>37</v>
+      </c>
+      <c r="G17" s="1">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1">
+        <v>19</v>
+      </c>
+      <c r="I17" s="1">
+        <v>27</v>
+      </c>
+      <c r="J17" s="1">
+        <v>36</v>
+      </c>
+      <c r="K17" s="1">
+        <v>30</v>
+      </c>
+      <c r="L17" s="1">
+        <v>17</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4</v>
+      </c>
+      <c r="N17" s="1">
+        <v>300</v>
+      </c>
+      <c r="O17" s="2">
+        <f>D17/$N17</f>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" ref="P17:P26" si="2">-O4+O17</f>
+        <v>-0.13866328257191202</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>32</v>
+      </c>
+      <c r="D18" s="8">
+        <v>38</v>
+      </c>
+      <c r="E18" s="6">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1">
+        <v>21</v>
+      </c>
+      <c r="I18" s="1">
+        <v>29</v>
+      </c>
+      <c r="J18" s="9">
+        <v>36</v>
+      </c>
+      <c r="K18" s="1">
+        <v>32</v>
+      </c>
+      <c r="L18" s="1">
+        <v>30</v>
+      </c>
+      <c r="M18" s="1">
+        <v>5</v>
+      </c>
+      <c r="N18" s="1">
+        <v>300</v>
+      </c>
+      <c r="O18" s="2">
+        <f>E18/$N18</f>
+        <v>0.12</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="2"/>
+        <v>2.9787234042553123E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1">
+        <v>29</v>
+      </c>
+      <c r="F19" s="6">
+        <v>51</v>
+      </c>
+      <c r="G19" s="1">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1">
+        <v>22</v>
+      </c>
+      <c r="I19" s="1">
+        <v>28</v>
+      </c>
+      <c r="J19" s="1">
+        <v>26</v>
+      </c>
+      <c r="K19" s="1">
+        <v>27</v>
+      </c>
+      <c r="L19" s="1">
+        <v>32</v>
+      </c>
+      <c r="M19" s="1">
+        <v>13</v>
+      </c>
+      <c r="N19" s="1">
+        <v>300</v>
+      </c>
+      <c r="O19" s="2">
+        <f>F19/$N19</f>
+        <v>0.17</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="2"/>
+        <v>-2.796954314720812E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1">
+        <v>17</v>
+      </c>
+      <c r="G20" s="6">
+        <v>67</v>
+      </c>
+      <c r="H20" s="1">
+        <v>22</v>
+      </c>
+      <c r="I20" s="1">
+        <v>32</v>
+      </c>
+      <c r="J20" s="1">
+        <v>28</v>
+      </c>
+      <c r="K20" s="1">
+        <v>30</v>
+      </c>
+      <c r="L20" s="1">
+        <v>24</v>
+      </c>
+      <c r="M20" s="1">
+        <v>13</v>
+      </c>
+      <c r="N20" s="1">
+        <v>300</v>
+      </c>
+      <c r="O20" s="2">
+        <f>G20/$N20</f>
+        <v>0.22333333333333333</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.12181049069373942</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1">
+        <v>19</v>
+      </c>
+      <c r="G21" s="1">
+        <v>32</v>
+      </c>
+      <c r="H21" s="6">
+        <v>55</v>
+      </c>
+      <c r="I21" s="1">
+        <v>28</v>
+      </c>
+      <c r="J21" s="1">
+        <v>19</v>
+      </c>
+      <c r="K21" s="1">
+        <v>45</v>
+      </c>
+      <c r="L21" s="1">
+        <v>20</v>
+      </c>
+      <c r="M21" s="1">
+        <v>6</v>
+      </c>
+      <c r="N21" s="1">
+        <v>300</v>
+      </c>
+      <c r="O21" s="2">
+        <f>H21/$N21</f>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.4290429042904292E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1">
+        <v>40</v>
+      </c>
+      <c r="G22" s="1">
+        <v>17</v>
+      </c>
+      <c r="H22" s="1">
+        <v>27</v>
+      </c>
+      <c r="I22" s="6">
+        <v>40</v>
+      </c>
+      <c r="J22" s="1">
+        <v>29</v>
+      </c>
+      <c r="K22" s="9">
+        <v>38</v>
+      </c>
+      <c r="L22" s="1">
+        <v>14</v>
+      </c>
+      <c r="M22" s="1">
+        <v>12</v>
+      </c>
+      <c r="N22" s="1">
+        <v>300</v>
+      </c>
+      <c r="O22" s="2">
+        <f>I22/$N22</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="2"/>
+        <v>-4.7154471544715443E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1">
+        <v>25</v>
+      </c>
+      <c r="F23" s="1">
+        <v>35</v>
+      </c>
+      <c r="G23" s="1">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1">
+        <v>17</v>
+      </c>
+      <c r="J23" s="6">
+        <v>53</v>
+      </c>
+      <c r="K23" s="1">
+        <v>36</v>
+      </c>
+      <c r="L23" s="1">
+        <v>17</v>
+      </c>
+      <c r="M23" s="1">
+        <v>20</v>
+      </c>
+      <c r="N23" s="1">
+        <v>300</v>
+      </c>
+      <c r="O23" s="2">
+        <f>J23/$N23</f>
+        <v>0.17666666666666667</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.1865443425076466E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>42</v>
+      </c>
+      <c r="D24" s="1">
+        <v>35</v>
+      </c>
+      <c r="E24" s="1">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1">
+        <v>19</v>
+      </c>
+      <c r="G24" s="1">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1">
+        <v>37</v>
+      </c>
+      <c r="I24" s="1">
+        <v>36</v>
+      </c>
+      <c r="J24" s="1">
+        <v>21</v>
+      </c>
+      <c r="K24" s="6">
+        <v>52</v>
+      </c>
+      <c r="L24" s="1">
+        <v>14</v>
+      </c>
+      <c r="M24" s="1">
+        <v>7</v>
+      </c>
+      <c r="N24" s="1">
+        <v>300</v>
+      </c>
+      <c r="O24" s="2">
+        <f>K24/$N24</f>
+        <v>0.17333333333333334</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.4089347079037804E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1">
+        <v>16</v>
+      </c>
+      <c r="F25" s="1">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1">
+        <v>11</v>
+      </c>
+      <c r="J25" s="1">
+        <v>8</v>
+      </c>
+      <c r="K25" s="1">
+        <v>14</v>
+      </c>
+      <c r="L25" s="6">
+        <v>167</v>
+      </c>
+      <c r="M25" s="1">
+        <v>20</v>
+      </c>
+      <c r="N25" s="1">
+        <v>300</v>
+      </c>
+      <c r="O25" s="2">
+        <f>L25/$N25</f>
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.0663176265270504E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1">
+        <v>6</v>
+      </c>
+      <c r="I26" s="1">
+        <v>11</v>
+      </c>
+      <c r="J26" s="1">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="L26" s="1">
+        <v>15</v>
+      </c>
+      <c r="M26" s="6">
+        <v>219</v>
+      </c>
+      <c r="N26" s="1">
+        <v>300</v>
+      </c>
+      <c r="O26" s="2">
+        <f>M26/$N26</f>
+        <v>0.73</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4218009478672577E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>365</v>
+      </c>
+      <c r="D27" s="1">
+        <v>348</v>
+      </c>
+      <c r="E27" s="1">
+        <v>239</v>
+      </c>
+      <c r="F27" s="1">
+        <v>275</v>
+      </c>
+      <c r="G27" s="1">
+        <v>233</v>
+      </c>
+      <c r="H27" s="1">
+        <v>256</v>
+      </c>
+      <c r="I27" s="1">
+        <v>270</v>
+      </c>
+      <c r="J27" s="1">
+        <v>298</v>
+      </c>
+      <c r="K27" s="1">
+        <v>326</v>
+      </c>
+      <c r="L27" s="1">
+        <v>360</v>
+      </c>
+      <c r="M27" s="1">
+        <v>330</v>
+      </c>
+      <c r="N27" s="1">
+        <v>3300</v>
+      </c>
+      <c r="O27" s="7">
+        <f>(C16+D17+E18+F19+G20+H21+I22+J23+K24+L25+M26)/SUM(C16:M26)</f>
+        <v>0.28454545454545455</v>
+      </c>
+      <c r="P27" s="10">
+        <f>O27-O14</f>
+        <v>-3.9090909090909065E-2</v>
       </c>
     </row>
   </sheetData>
